--- a/Data/Variables description.xlsx
+++ b/Data/Variables description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana Carcedo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsantiago\Documents\K-State\Senegal-visualizing-data-app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA2D1A6-CF0C-4068-9D7A-0B317EC62C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391F7389-9F39-4960-82DB-23157844C9B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E1FC71D5-D070-416D-8222-2D1B1B83101A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{E1FC71D5-D070-416D-8222-2D1B1B83101A}"/>
   </bookViews>
   <sheets>
     <sheet name="Layers_Reviewed" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -113,9 +102,6 @@
     <t>Chickens</t>
   </si>
   <si>
-    <t>Assins</t>
-  </si>
-  <si>
     <t>Cows</t>
   </si>
   <si>
@@ -218,27 +204,6 @@
     <t>Precipitation</t>
   </si>
   <si>
-    <t>Peanut</t>
-  </si>
-  <si>
-    <t>Cowpea</t>
-  </si>
-  <si>
-    <t>Cassava</t>
-  </si>
-  <si>
-    <t>Millet</t>
-  </si>
-  <si>
-    <t>Maize</t>
-  </si>
-  <si>
-    <t>Sorghum</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
     <t>Percentage of households employing insecticides</t>
   </si>
   <si>
@@ -260,9 +225,6 @@
     <t>Fertilizer use</t>
   </si>
   <si>
-    <t>Husbandry</t>
-  </si>
-  <si>
     <t>Irrigation</t>
   </si>
   <si>
@@ -308,12 +270,6 @@
     <t>Price local peanut</t>
   </si>
   <si>
-    <t>Price imported F rice</t>
-  </si>
-  <si>
-    <t>Price imported PB rice</t>
-  </si>
-  <si>
     <t>Price imported maize</t>
   </si>
   <si>
@@ -354,39 +310,6 @@
   </si>
   <si>
     <t>FEI</t>
-  </si>
-  <si>
-    <t>Less -3 ET_Size Age</t>
-  </si>
-  <si>
-    <t>Avg RCS ET_Size Age</t>
-  </si>
-  <si>
-    <t>Less -2 ET_Size Age</t>
-  </si>
-  <si>
-    <t>Less -3 ET_Weight Age</t>
-  </si>
-  <si>
-    <t>Less -2 ET_Weight Age</t>
-  </si>
-  <si>
-    <t>Less +2 ET_Weight Age</t>
-  </si>
-  <si>
-    <t>Less -3 ET_Weight Height</t>
-  </si>
-  <si>
-    <t>Less -2 ET_Weight Height</t>
-  </si>
-  <si>
-    <t>Less +2 ET_Weight Height</t>
-  </si>
-  <si>
-    <t>Avg RCS ET_Weight Height</t>
-  </si>
-  <si>
-    <t>Avg RCS ET_Weight Age</t>
   </si>
   <si>
     <t xml:space="preserve">Abbreviation </t>
@@ -498,12 +421,78 @@
   <si>
     <t xml:space="preserve"> Producer mean price trend_Cowpea</t>
   </si>
+  <si>
+    <t>Prod Peanut</t>
+  </si>
+  <si>
+    <t>Prod Cowpea</t>
+  </si>
+  <si>
+    <t>Prod Cassava</t>
+  </si>
+  <si>
+    <t>Prod Millet</t>
+  </si>
+  <si>
+    <t>Prod Maize</t>
+  </si>
+  <si>
+    <t>Prod Sorghum</t>
+  </si>
+  <si>
+    <t>Prod Rice</t>
+  </si>
+  <si>
+    <t>Donkeys</t>
+  </si>
+  <si>
+    <t>An Husbandry</t>
+  </si>
+  <si>
+    <t>Price imported Rice</t>
+  </si>
+  <si>
+    <t>Price imported Frag Rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underweight Ave </t>
+  </si>
+  <si>
+    <t>Wasting Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stunting Ave </t>
+  </si>
+  <si>
+    <t>Underweight less 3 std</t>
+  </si>
+  <si>
+    <t>Underweight less 2 std</t>
+  </si>
+  <si>
+    <t>Wasting less 3 z</t>
+  </si>
+  <si>
+    <t>Wasting less minus 2z</t>
+  </si>
+  <si>
+    <t>Wasting less plus 2z</t>
+  </si>
+  <si>
+    <t>Stunting less 3 std</t>
+  </si>
+  <si>
+    <t>Stunting less minus 2 std</t>
+  </si>
+  <si>
+    <t>Stunting less plus 2 std</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +529,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -562,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -584,12 +580,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -597,6 +587,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -918,54 +917,54 @@
   </sheetPr>
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="65.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="1" customWidth="1"/>
-    <col min="8" max="12" width="8.7265625" style="1"/>
-    <col min="13" max="13" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="8.77734375" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -974,15 +973,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -991,38 +990,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1033,38 +1032,38 @@
         <v>9</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
+      <c r="C8" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -1073,22 +1072,22 @@
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>61</v>
+      <c r="C9" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>14</v>
@@ -1097,22 +1096,22 @@
         <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>62</v>
+      <c r="C10" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -1121,18 +1120,18 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
+      <c r="C11" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -1141,18 +1140,18 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>64</v>
+      <c r="C12" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
@@ -1161,18 +1160,18 @@
         <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>65</v>
+      <c r="C13" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>18</v>
@@ -1181,18 +1180,18 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
+      <c r="C14" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>19</v>
@@ -1201,10 +1200,10 @@
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,19 +1211,19 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1232,19 +1231,19 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1252,19 +1251,19 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1272,19 +1271,19 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>22</v>
@@ -1304,7 +1303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1315,7 +1314,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>22</v>
@@ -1324,18 +1323,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>25</v>
+      <c r="C21" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>22</v>
@@ -1344,7 +1343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1352,10 +1351,10 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>22</v>
@@ -1364,7 +1363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1372,10 +1371,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>22</v>
@@ -1384,18 +1383,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>74</v>
+      <c r="C24" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>20</v>
@@ -1404,598 +1403,598 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="F27" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="D28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="E38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="F47" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="B48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="C49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="C50" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="D50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="D51" s="5" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>126</v>
+        <v>31</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="13"/>
       <c r="E53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="13"/>
       <c r="E54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -2006,248 +2005,248 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="D63" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="E67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Variables description.xlsx
+++ b/Data/Variables description.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsantiago\Documents\K-State\Senegal-visualizing-data-app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE18DAD-E777-4AFF-AB56-906D2B631682}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C99707E-4E94-4757-8342-C8C70235A616}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{E1FC71D5-D070-416D-8222-2D1B1B83101A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="169">
   <si>
     <t>Domain</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>CHIRPS</t>
-  </si>
-  <si>
-    <t>Kpodo et al., under review</t>
   </si>
   <si>
     <t>mm</t>
@@ -511,12 +508,68 @@
   <si>
     <t>0.25 degree</t>
   </si>
+  <si>
+    <t>Year of Acquisition</t>
+  </si>
+  <si>
+    <t>2015-2021</t>
+  </si>
+  <si>
+    <t>2015-2020</t>
+  </si>
+  <si>
+    <t>2016-2021</t>
+  </si>
+  <si>
+    <t>2016-2018 and 2019-2021</t>
+  </si>
+  <si>
+    <t>2015 and 2017-2020</t>
+  </si>
+  <si>
+    <t>2017-2020</t>
+  </si>
+  <si>
+    <t>2015-2019</t>
+  </si>
+  <si>
+    <t>2016-2019</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF008080"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FF008080"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cd</t>
+    </r>
+  </si>
+  <si>
+    <t>Banda et al., under review</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +616,28 @@
     <font>
       <u/>
       <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color rgb="FF008080"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF008080"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -640,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -684,6 +759,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1015,7 +1123,7 @@
   <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1028,7 +1136,8 @@
     <col min="6" max="6" width="67.77734375" style="10" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="12" customWidth="1"/>
     <col min="8" max="8" width="12" style="12" customWidth="1"/>
-    <col min="9" max="12" width="8.77734375" style="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8.77734375" style="1"/>
     <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.77734375" style="1"/>
@@ -1042,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1051,13 +1160,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>149</v>
+      <c r="I1" s="18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1065,10 +1177,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -1078,10 +1190,13 @@
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1089,10 +1204,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -1102,84 +1217,98 @@
         <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="12.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>158</v>
+      <c r="I6" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="K6" s="13"/>
     </row>
@@ -1191,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
@@ -1200,20 +1329,23 @@
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1221,22 +1353,25 @@
         <v>9</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1251,7 +1386,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
@@ -1260,13 +1395,16 @@
         <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1277,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
@@ -1286,13 +1424,16 @@
         <v>11</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1303,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
@@ -1312,13 +1453,16 @@
         <v>11</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1329,7 +1473,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
@@ -1338,13 +1482,16 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1355,7 +1502,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
@@ -1364,13 +1511,16 @@
         <v>11</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1381,25 +1531,28 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -1407,25 +1560,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1433,25 +1589,28 @@
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1459,25 +1618,28 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -1488,7 +1650,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>19</v>
@@ -1497,13 +1659,16 @@
         <v>20</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1679,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>19</v>
@@ -1523,13 +1688,16 @@
         <v>20</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -1537,10 +1705,10 @@
         <v>9</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>19</v>
@@ -1549,13 +1717,16 @@
         <v>20</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1566,7 +1737,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>19</v>
@@ -1575,13 +1746,16 @@
         <v>20</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1592,7 +1766,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>19</v>
@@ -1601,13 +1775,16 @@
         <v>20</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
@@ -1615,7 +1792,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>24</v>
@@ -1627,13 +1804,16 @@
         <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1641,7 +1821,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>29</v>
@@ -1650,16 +1830,19 @@
         <v>17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -1667,7 +1850,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>30</v>
@@ -1676,16 +1859,19 @@
         <v>17</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -1702,16 +1888,19 @@
         <v>26</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1719,10 +1908,10 @@
         <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>32</v>
@@ -1731,13 +1920,16 @@
         <v>27</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
@@ -1745,10 +1937,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>32</v>
@@ -1757,13 +1949,16 @@
         <v>27</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
@@ -1771,10 +1966,10 @@
         <v>9</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>32</v>
@@ -1783,13 +1978,16 @@
         <v>27</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
@@ -1797,10 +1995,10 @@
         <v>9</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>32</v>
@@ -1809,13 +2007,16 @@
         <v>27</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -1823,10 +2024,10 @@
         <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>32</v>
@@ -1835,13 +2036,16 @@
         <v>27</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
@@ -1849,10 +2053,10 @@
         <v>9</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>32</v>
@@ -1861,13 +2065,16 @@
         <v>27</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
@@ -1875,10 +2082,10 @@
         <v>9</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>32</v>
@@ -1887,13 +2094,16 @@
         <v>27</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>25</v>
       </c>
@@ -1901,10 +2111,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>32</v>
@@ -1913,13 +2123,16 @@
         <v>27</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>25</v>
       </c>
@@ -1927,10 +2140,10 @@
         <v>9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>32</v>
@@ -1939,13 +2152,16 @@
         <v>27</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>25</v>
       </c>
@@ -1953,10 +2169,10 @@
         <v>9</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>32</v>
@@ -1965,13 +2181,16 @@
         <v>27</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
@@ -1979,10 +2198,10 @@
         <v>9</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>32</v>
@@ -1991,13 +2210,16 @@
         <v>27</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
@@ -2005,10 +2227,10 @@
         <v>9</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>32</v>
@@ -2017,13 +2239,16 @@
         <v>27</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>25</v>
       </c>
@@ -2031,10 +2256,10 @@
         <v>9</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>32</v>
@@ -2043,13 +2268,16 @@
         <v>27</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>25</v>
       </c>
@@ -2057,10 +2285,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>32</v>
@@ -2069,13 +2297,16 @@
         <v>27</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
@@ -2083,10 +2314,10 @@
         <v>9</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>32</v>
@@ -2095,13 +2326,16 @@
         <v>27</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>25</v>
       </c>
@@ -2109,10 +2343,10 @@
         <v>9</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>32</v>
@@ -2121,13 +2355,16 @@
         <v>27</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>33</v>
       </c>
@@ -2135,7 +2372,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>34</v>
@@ -2144,16 +2381,19 @@
         <v>17</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>33</v>
       </c>
@@ -2161,7 +2401,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>35</v>
@@ -2170,16 +2410,19 @@
         <v>17</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>33</v>
       </c>
@@ -2187,7 +2430,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>36</v>
@@ -2196,16 +2439,19 @@
         <v>17</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>33</v>
       </c>
@@ -2213,25 +2459,28 @@
         <v>9</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>33</v>
       </c>
@@ -2239,7 +2488,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>37</v>
@@ -2248,16 +2497,19 @@
         <v>38</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>33</v>
       </c>
@@ -2265,25 +2517,28 @@
         <v>28</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>33</v>
       </c>
@@ -2291,7 +2546,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>39</v>
@@ -2300,13 +2555,16 @@
         <v>40</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -2320,17 +2578,20 @@
         <v>41</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2341,22 +2602,25 @@
         <v>28</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>99</v>
+        <v>137</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -2367,20 +2631,23 @@
         <v>28</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="17"/>
+        <v>138</v>
+      </c>
+      <c r="D52" s="28"/>
       <c r="E52" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -2391,22 +2658,24 @@
         <v>28</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53" s="17"/>
+        <v>134</v>
+      </c>
+      <c r="D53" s="28"/>
       <c r="E53" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I53" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -2421,20 +2690,23 @@
         <v>28</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" s="17"/>
+        <v>139</v>
+      </c>
+      <c r="D54" s="28"/>
       <c r="E54" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -2445,20 +2717,23 @@
         <v>28</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" s="17"/>
+        <v>140</v>
+      </c>
+      <c r="D55" s="28"/>
       <c r="E55" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -2469,20 +2744,23 @@
         <v>28</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="17"/>
+        <v>141</v>
+      </c>
+      <c r="D56" s="28"/>
       <c r="E56" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -2493,20 +2771,23 @@
         <v>28</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57" s="17"/>
+        <v>135</v>
+      </c>
+      <c r="D57" s="28"/>
       <c r="E57" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -2517,20 +2798,23 @@
         <v>28</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D58" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="D58" s="28"/>
       <c r="E58" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -2541,20 +2825,23 @@
         <v>28</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="17"/>
+        <v>143</v>
+      </c>
+      <c r="D59" s="28"/>
       <c r="E59" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -2565,20 +2852,23 @@
         <v>28</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" s="17"/>
+        <v>144</v>
+      </c>
+      <c r="D60" s="28"/>
       <c r="E60" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -2589,20 +2879,23 @@
         <v>28</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" s="18"/>
+        <v>136</v>
+      </c>
+      <c r="D61" s="29"/>
       <c r="E61" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2616,19 +2909,22 @@
         <v>43</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2642,19 +2938,22 @@
         <v>44</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2668,22 +2967,25 @@
         <v>45</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>42</v>
       </c>
@@ -2694,22 +2996,25 @@
         <v>46</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>42</v>
       </c>
@@ -2720,19 +3025,22 @@
         <v>47</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
